--- a/INTLINE/data/193/ABS/08_volume_measures_trend_capex.xlsx
+++ b/INTLINE/data/193/ABS/08_volume_measures_trend_capex.xlsx
@@ -12,179 +12,179 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124797436X">Data1!$B$1:$B$10,Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797436X_Data">Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797436X_Latest">Data1!$B$148</definedName>
-    <definedName name="A124797437A">Data1!$U$1:$U$10,Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797437A_Data">Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797437A_Latest">Data1!$U$148</definedName>
-    <definedName name="A124797438C">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797438C_Data">Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797438C_Latest">Data1!$AN$148</definedName>
-    <definedName name="A124797637V">Data1!$D$1:$D$10,Data1!$D$11:$D$148</definedName>
-    <definedName name="A124797637V_Data">Data1!$D$11:$D$148</definedName>
-    <definedName name="A124797637V_Latest">Data1!$D$148</definedName>
-    <definedName name="A124797638W">Data1!$W$1:$W$10,Data1!$W$11:$W$148</definedName>
-    <definedName name="A124797638W_Data">Data1!$W$11:$W$148</definedName>
-    <definedName name="A124797638W_Latest">Data1!$W$148</definedName>
-    <definedName name="A124797639X">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124797639X_Data">Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124797639X_Latest">Data1!$AP$148</definedName>
-    <definedName name="A124797734W">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797734W_Data">Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797734W_Latest">Data1!$Q$148</definedName>
-    <definedName name="A124797735X">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797735X_Data">Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797735X_Latest">Data1!$AJ$148</definedName>
-    <definedName name="A124797736A">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797736A_Data">Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797736A_Latest">Data1!$BC$148</definedName>
-    <definedName name="A124797869F">Data1!$R$1:$R$10,Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797869F_Data">Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797869F_Latest">Data1!$R$148</definedName>
-    <definedName name="A124797870R">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797870R_Data">Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797870R_Latest">Data1!$AK$148</definedName>
-    <definedName name="A124797871T">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797871T_Data">Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797871T_Latest">Data1!$BD$148</definedName>
-    <definedName name="A124798545C">Data1!$S$1:$S$10,Data1!$S$11:$S$148</definedName>
-    <definedName name="A124798545C_Data">Data1!$S$11:$S$148</definedName>
-    <definedName name="A124798545C_Latest">Data1!$S$148</definedName>
-    <definedName name="A124798546F">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124798546F_Data">Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124798546F_Latest">Data1!$AL$148</definedName>
-    <definedName name="A124798547J">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124798547J_Data">Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124798547J_Latest">Data1!$BE$148</definedName>
-    <definedName name="A124798669F">Data1!$J$1:$J$10,Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798669F_Data">Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798669F_Latest">Data1!$J$148</definedName>
-    <definedName name="A124798670R">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798670R_Data">Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798670R_Latest">Data1!$AC$148</definedName>
-    <definedName name="A124798671T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798671T_Data">Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798671T_Latest">Data1!$AV$148</definedName>
-    <definedName name="A124798828C">Data1!$P$1:$P$10,Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798828C_Data">Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798828C_Latest">Data1!$P$148</definedName>
-    <definedName name="A124798829F">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798829F_Data">Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798829F_Latest">Data1!$AI$148</definedName>
-    <definedName name="A124798830R">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798830R_Data">Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798830R_Latest">Data1!$BB$148</definedName>
-    <definedName name="A124799091R">Data1!$T$1:$T$10,Data1!$T$11:$T$148</definedName>
-    <definedName name="A124799091R_Data">Data1!$T$11:$T$148</definedName>
-    <definedName name="A124799091R_Latest">Data1!$T$148</definedName>
-    <definedName name="A124799092T">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124799092T_Data">Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124799092T_Latest">Data1!$AM$148</definedName>
-    <definedName name="A124799093V">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124799093V_Data">Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124799093V_Latest">Data1!$BF$148</definedName>
-    <definedName name="A3510994V">Data1!$F$1:$F$10,Data1!$F$11:$F$148</definedName>
-    <definedName name="A3510994V_Data">Data1!$F$11:$F$148</definedName>
-    <definedName name="A3510994V_Latest">Data1!$F$148</definedName>
-    <definedName name="A3510997A">Data1!$G$1:$G$10,Data1!$G$11:$G$148</definedName>
-    <definedName name="A3510997A_Data">Data1!$G$11:$G$148</definedName>
-    <definedName name="A3510997A_Latest">Data1!$G$148</definedName>
-    <definedName name="A3511000F">Data1!$H$1:$H$10,Data1!$H$11:$H$148</definedName>
-    <definedName name="A3511000F_Data">Data1!$H$11:$H$148</definedName>
-    <definedName name="A3511000F_Latest">Data1!$H$148</definedName>
-    <definedName name="A3511003L">Data1!$I$1:$I$10,Data1!$I$11:$I$148</definedName>
-    <definedName name="A3511003L_Data">Data1!$I$11:$I$148</definedName>
-    <definedName name="A3511003L_Latest">Data1!$I$148</definedName>
-    <definedName name="A3511006V">Data1!$K$1:$K$10,Data1!$K$11:$K$148</definedName>
-    <definedName name="A3511006V_Data">Data1!$K$11:$K$148</definedName>
-    <definedName name="A3511006V_Latest">Data1!$K$148</definedName>
-    <definedName name="A3511009A">Data1!$L$1:$L$10,Data1!$L$11:$L$148</definedName>
-    <definedName name="A3511009A_Data">Data1!$L$11:$L$148</definedName>
-    <definedName name="A3511009A_Latest">Data1!$L$148</definedName>
-    <definedName name="A3511012R">Data1!$M$1:$M$10,Data1!$M$11:$M$148</definedName>
-    <definedName name="A3511012R_Data">Data1!$M$11:$M$148</definedName>
-    <definedName name="A3511012R_Latest">Data1!$M$148</definedName>
-    <definedName name="A3511015W">Data1!$N$1:$N$10,Data1!$N$11:$N$148</definedName>
-    <definedName name="A3511015W_Data">Data1!$N$11:$N$148</definedName>
-    <definedName name="A3511015W_Latest">Data1!$N$148</definedName>
-    <definedName name="A3511018C">Data1!$O$1:$O$10,Data1!$O$11:$O$148</definedName>
-    <definedName name="A3511018C_Data">Data1!$O$11:$O$148</definedName>
-    <definedName name="A3511018C_Latest">Data1!$O$148</definedName>
-    <definedName name="A3511030V">Data1!$V$1:$V$10,Data1!$V$11:$V$148</definedName>
-    <definedName name="A3511030V_Data">Data1!$V$11:$V$148</definedName>
-    <definedName name="A3511030V_Latest">Data1!$V$148</definedName>
-    <definedName name="A3511033A">Data1!$X$1:$X$10,Data1!$X$11:$X$148</definedName>
-    <definedName name="A3511033A_Data">Data1!$X$11:$X$148</definedName>
-    <definedName name="A3511033A_Latest">Data1!$X$148</definedName>
-    <definedName name="A3511036J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3511036J_Data">Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3511036J_Latest">Data1!$Y$148</definedName>
-    <definedName name="A3511039R">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3511039R_Data">Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3511039R_Latest">Data1!$Z$148</definedName>
-    <definedName name="A3511042C">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3511042C_Data">Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3511042C_Latest">Data1!$AA$148</definedName>
-    <definedName name="A3511045K">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3511045K_Data">Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3511045K_Latest">Data1!$AB$148</definedName>
-    <definedName name="A3511048T">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3511048T_Data">Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3511048T_Latest">Data1!$AD$148</definedName>
-    <definedName name="A3511051F">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3511051F_Data">Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3511051F_Latest">Data1!$AE$148</definedName>
-    <definedName name="A3511054L">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3511054L_Data">Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3511054L_Latest">Data1!$AF$148</definedName>
-    <definedName name="A3511057V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3511057V_Data">Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3511057V_Latest">Data1!$AG$148</definedName>
-    <definedName name="A3511060J">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3511060J_Data">Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3511060J_Latest">Data1!$AH$148</definedName>
-    <definedName name="A3511072T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3511072T_Data">Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3511072T_Latest">Data1!$AO$148</definedName>
-    <definedName name="A3511075X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3511075X_Data">Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3511075X_Latest">Data1!$AQ$148</definedName>
-    <definedName name="A3511078F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3511078F_Data">Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3511078F_Latest">Data1!$AR$148</definedName>
-    <definedName name="A3511081V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3511081V_Data">Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3511081V_Latest">Data1!$AS$148</definedName>
-    <definedName name="A3511084A">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3511084A_Data">Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3511084A_Latest">Data1!$AT$148</definedName>
-    <definedName name="A3511087J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3511087J_Data">Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3511087J_Latest">Data1!$AU$148</definedName>
-    <definedName name="A3511090W">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3511090W_Data">Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3511090W_Latest">Data1!$AW$148</definedName>
-    <definedName name="A3511093C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3511093C_Data">Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3511093C_Latest">Data1!$AX$148</definedName>
-    <definedName name="A3511096K">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3511096K_Data">Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3511096K_Latest">Data1!$AY$148</definedName>
-    <definedName name="A3511099T">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3511099T_Data">Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3511099T_Latest">Data1!$AZ$148</definedName>
-    <definedName name="A3511102V">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3511102V_Data">Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3511102V_Latest">Data1!$BA$148</definedName>
-    <definedName name="A3516001X">Data1!$C$1:$C$10,Data1!$C$11:$C$148</definedName>
-    <definedName name="A3516001X_Data">Data1!$C$11:$C$148</definedName>
-    <definedName name="A3516001X_Latest">Data1!$C$148</definedName>
-    <definedName name="A3516004F">Data1!$E$1:$E$10,Data1!$E$11:$E$148</definedName>
-    <definedName name="A3516004F_Data">Data1!$E$11:$E$148</definedName>
-    <definedName name="A3516004F_Latest">Data1!$E$148</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$148</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$148</definedName>
+    <definedName name="A124797436X">Data1!$B$1:$B$10,Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797436X_Data">Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797436X_Latest">Data1!$B$149</definedName>
+    <definedName name="A124797437A">Data1!$U$1:$U$10,Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797437A_Data">Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797437A_Latest">Data1!$U$149</definedName>
+    <definedName name="A124797438C">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797438C_Data">Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797438C_Latest">Data1!$AN$149</definedName>
+    <definedName name="A124797637V">Data1!$D$1:$D$10,Data1!$D$11:$D$149</definedName>
+    <definedName name="A124797637V_Data">Data1!$D$11:$D$149</definedName>
+    <definedName name="A124797637V_Latest">Data1!$D$149</definedName>
+    <definedName name="A124797638W">Data1!$W$1:$W$10,Data1!$W$11:$W$149</definedName>
+    <definedName name="A124797638W_Data">Data1!$W$11:$W$149</definedName>
+    <definedName name="A124797638W_Latest">Data1!$W$149</definedName>
+    <definedName name="A124797639X">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124797639X_Data">Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124797639X_Latest">Data1!$AP$149</definedName>
+    <definedName name="A124797734W">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797734W_Data">Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797734W_Latest">Data1!$Q$149</definedName>
+    <definedName name="A124797735X">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797735X_Data">Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797735X_Latest">Data1!$AJ$149</definedName>
+    <definedName name="A124797736A">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797736A_Data">Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797736A_Latest">Data1!$BC$149</definedName>
+    <definedName name="A124797869F">Data1!$R$1:$R$10,Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797869F_Data">Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797869F_Latest">Data1!$R$149</definedName>
+    <definedName name="A124797870R">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797870R_Data">Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797870R_Latest">Data1!$AK$149</definedName>
+    <definedName name="A124797871T">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797871T_Data">Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797871T_Latest">Data1!$BD$149</definedName>
+    <definedName name="A124798545C">Data1!$S$1:$S$10,Data1!$S$11:$S$149</definedName>
+    <definedName name="A124798545C_Data">Data1!$S$11:$S$149</definedName>
+    <definedName name="A124798545C_Latest">Data1!$S$149</definedName>
+    <definedName name="A124798546F">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124798546F_Data">Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124798546F_Latest">Data1!$AL$149</definedName>
+    <definedName name="A124798547J">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124798547J_Data">Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124798547J_Latest">Data1!$BE$149</definedName>
+    <definedName name="A124798669F">Data1!$J$1:$J$10,Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798669F_Data">Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798669F_Latest">Data1!$J$149</definedName>
+    <definedName name="A124798670R">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798670R_Data">Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798670R_Latest">Data1!$AC$149</definedName>
+    <definedName name="A124798671T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798671T_Data">Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798671T_Latest">Data1!$AV$149</definedName>
+    <definedName name="A124798828C">Data1!$P$1:$P$10,Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798828C_Data">Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798828C_Latest">Data1!$P$149</definedName>
+    <definedName name="A124798829F">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798829F_Data">Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798829F_Latest">Data1!$AI$149</definedName>
+    <definedName name="A124798830R">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798830R_Data">Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798830R_Latest">Data1!$BB$149</definedName>
+    <definedName name="A124799091R">Data1!$T$1:$T$10,Data1!$T$11:$T$149</definedName>
+    <definedName name="A124799091R_Data">Data1!$T$11:$T$149</definedName>
+    <definedName name="A124799091R_Latest">Data1!$T$149</definedName>
+    <definedName name="A124799092T">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124799092T_Data">Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124799092T_Latest">Data1!$AM$149</definedName>
+    <definedName name="A124799093V">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124799093V_Data">Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124799093V_Latest">Data1!$BF$149</definedName>
+    <definedName name="A3510994V">Data1!$F$1:$F$10,Data1!$F$11:$F$149</definedName>
+    <definedName name="A3510994V_Data">Data1!$F$11:$F$149</definedName>
+    <definedName name="A3510994V_Latest">Data1!$F$149</definedName>
+    <definedName name="A3510997A">Data1!$G$1:$G$10,Data1!$G$11:$G$149</definedName>
+    <definedName name="A3510997A_Data">Data1!$G$11:$G$149</definedName>
+    <definedName name="A3510997A_Latest">Data1!$G$149</definedName>
+    <definedName name="A3511000F">Data1!$H$1:$H$10,Data1!$H$11:$H$149</definedName>
+    <definedName name="A3511000F_Data">Data1!$H$11:$H$149</definedName>
+    <definedName name="A3511000F_Latest">Data1!$H$149</definedName>
+    <definedName name="A3511003L">Data1!$I$1:$I$10,Data1!$I$11:$I$149</definedName>
+    <definedName name="A3511003L_Data">Data1!$I$11:$I$149</definedName>
+    <definedName name="A3511003L_Latest">Data1!$I$149</definedName>
+    <definedName name="A3511006V">Data1!$K$1:$K$10,Data1!$K$11:$K$149</definedName>
+    <definedName name="A3511006V_Data">Data1!$K$11:$K$149</definedName>
+    <definedName name="A3511006V_Latest">Data1!$K$149</definedName>
+    <definedName name="A3511009A">Data1!$L$1:$L$10,Data1!$L$11:$L$149</definedName>
+    <definedName name="A3511009A_Data">Data1!$L$11:$L$149</definedName>
+    <definedName name="A3511009A_Latest">Data1!$L$149</definedName>
+    <definedName name="A3511012R">Data1!$M$1:$M$10,Data1!$M$11:$M$149</definedName>
+    <definedName name="A3511012R_Data">Data1!$M$11:$M$149</definedName>
+    <definedName name="A3511012R_Latest">Data1!$M$149</definedName>
+    <definedName name="A3511015W">Data1!$N$1:$N$10,Data1!$N$11:$N$149</definedName>
+    <definedName name="A3511015W_Data">Data1!$N$11:$N$149</definedName>
+    <definedName name="A3511015W_Latest">Data1!$N$149</definedName>
+    <definedName name="A3511018C">Data1!$O$1:$O$10,Data1!$O$11:$O$149</definedName>
+    <definedName name="A3511018C_Data">Data1!$O$11:$O$149</definedName>
+    <definedName name="A3511018C_Latest">Data1!$O$149</definedName>
+    <definedName name="A3511030V">Data1!$V$1:$V$10,Data1!$V$11:$V$149</definedName>
+    <definedName name="A3511030V_Data">Data1!$V$11:$V$149</definedName>
+    <definedName name="A3511030V_Latest">Data1!$V$149</definedName>
+    <definedName name="A3511033A">Data1!$X$1:$X$10,Data1!$X$11:$X$149</definedName>
+    <definedName name="A3511033A_Data">Data1!$X$11:$X$149</definedName>
+    <definedName name="A3511033A_Latest">Data1!$X$149</definedName>
+    <definedName name="A3511036J">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3511036J_Data">Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3511036J_Latest">Data1!$Y$149</definedName>
+    <definedName name="A3511039R">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3511039R_Data">Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3511039R_Latest">Data1!$Z$149</definedName>
+    <definedName name="A3511042C">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3511042C_Data">Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3511042C_Latest">Data1!$AA$149</definedName>
+    <definedName name="A3511045K">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3511045K_Data">Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3511045K_Latest">Data1!$AB$149</definedName>
+    <definedName name="A3511048T">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3511048T_Data">Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3511048T_Latest">Data1!$AD$149</definedName>
+    <definedName name="A3511051F">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3511051F_Data">Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3511051F_Latest">Data1!$AE$149</definedName>
+    <definedName name="A3511054L">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3511054L_Data">Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3511054L_Latest">Data1!$AF$149</definedName>
+    <definedName name="A3511057V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3511057V_Data">Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3511057V_Latest">Data1!$AG$149</definedName>
+    <definedName name="A3511060J">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3511060J_Data">Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3511060J_Latest">Data1!$AH$149</definedName>
+    <definedName name="A3511072T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3511072T_Data">Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3511072T_Latest">Data1!$AO$149</definedName>
+    <definedName name="A3511075X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3511075X_Data">Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3511075X_Latest">Data1!$AQ$149</definedName>
+    <definedName name="A3511078F">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3511078F_Data">Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3511078F_Latest">Data1!$AR$149</definedName>
+    <definedName name="A3511081V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3511081V_Data">Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3511081V_Latest">Data1!$AS$149</definedName>
+    <definedName name="A3511084A">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3511084A_Data">Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3511084A_Latest">Data1!$AT$149</definedName>
+    <definedName name="A3511087J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3511087J_Data">Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3511087J_Latest">Data1!$AU$149</definedName>
+    <definedName name="A3511090W">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3511090W_Data">Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3511090W_Latest">Data1!$AW$149</definedName>
+    <definedName name="A3511093C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3511093C_Data">Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3511093C_Latest">Data1!$AX$149</definedName>
+    <definedName name="A3511096K">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3511096K_Data">Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3511096K_Latest">Data1!$AY$149</definedName>
+    <definedName name="A3511099T">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3511099T_Data">Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3511099T_Latest">Data1!$AZ$149</definedName>
+    <definedName name="A3511102V">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3511102V_Data">Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3511102V_Latest">Data1!$BA$149</definedName>
+    <definedName name="A3516001X">Data1!$C$1:$C$10,Data1!$C$11:$C$149</definedName>
+    <definedName name="A3516001X_Data">Data1!$C$11:$C$149</definedName>
+    <definedName name="A3516001X_Latest">Data1!$C$149</definedName>
+    <definedName name="A3516004F">Data1!$E$1:$E$10,Data1!$E$11:$E$149</definedName>
+    <definedName name="A3516004F_Data">Data1!$E$11:$E$149</definedName>
+    <definedName name="A3516004F_Latest">Data1!$E$149</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$149</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -9439,6 +9439,747 @@
       </text>
     </comment>
     <comment ref="BF148" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE149" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10569,10 +11310,10 @@
         <v>32021</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>66</v>
@@ -10601,10 +11342,10 @@
         <v>32021</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>66</v>
@@ -10633,10 +11374,10 @@
         <v>32021</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>66</v>
@@ -10665,10 +11406,10 @@
         <v>32021</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>66</v>
@@ -10697,10 +11438,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>66</v>
@@ -10729,10 +11470,10 @@
         <v>32021</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>66</v>
@@ -10761,10 +11502,10 @@
         <v>32021</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>66</v>
@@ -10793,10 +11534,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>66</v>
@@ -10825,10 +11566,10 @@
         <v>32021</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>66</v>
@@ -10857,10 +11598,10 @@
         <v>32021</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>66</v>
@@ -10889,10 +11630,10 @@
         <v>32021</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>66</v>
@@ -10921,10 +11662,10 @@
         <v>32021</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>66</v>
@@ -10953,10 +11694,10 @@
         <v>32021</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>66</v>
@@ -10985,10 +11726,10 @@
         <v>32021</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>66</v>
@@ -11017,10 +11758,10 @@
         <v>32021</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>66</v>
@@ -11049,10 +11790,10 @@
         <v>32021</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>66</v>
@@ -11081,10 +11822,10 @@
         <v>32021</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>66</v>
@@ -11113,10 +11854,10 @@
         <v>32021</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>66</v>
@@ -11145,10 +11886,10 @@
         <v>32021</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>66</v>
@@ -11177,10 +11918,10 @@
         <v>32021</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>66</v>
@@ -11209,10 +11950,10 @@
         <v>32021</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>66</v>
@@ -11241,10 +11982,10 @@
         <v>32021</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
@@ -11273,10 +12014,10 @@
         <v>32021</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>66</v>
@@ -11305,10 +12046,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>66</v>
@@ -11337,10 +12078,10 @@
         <v>32021</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>66</v>
@@ -11369,10 +12110,10 @@
         <v>32021</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>66</v>
@@ -11401,10 +12142,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>66</v>
@@ -11433,10 +12174,10 @@
         <v>32021</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>66</v>
@@ -11465,10 +12206,10 @@
         <v>32021</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>66</v>
@@ -11497,10 +12238,10 @@
         <v>32021</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>66</v>
@@ -11529,10 +12270,10 @@
         <v>32021</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>66</v>
@@ -11561,10 +12302,10 @@
         <v>32021</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>66</v>
@@ -11593,10 +12334,10 @@
         <v>32021</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>66</v>
@@ -11625,10 +12366,10 @@
         <v>32021</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>66</v>
@@ -11657,10 +12398,10 @@
         <v>32021</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>66</v>
@@ -11689,10 +12430,10 @@
         <v>32021</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>66</v>
@@ -11721,10 +12462,10 @@
         <v>32021</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>66</v>
@@ -11753,10 +12494,10 @@
         <v>32021</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>66</v>
@@ -11785,10 +12526,10 @@
         <v>32021</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>66</v>
@@ -11817,10 +12558,10 @@
         <v>32021</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>66</v>
@@ -11849,10 +12590,10 @@
         <v>32021</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>66</v>
@@ -11881,10 +12622,10 @@
         <v>32021</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>66</v>
@@ -11913,10 +12654,10 @@
         <v>42979</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>66</v>
@@ -11945,10 +12686,10 @@
         <v>32021</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>66</v>
@@ -11977,10 +12718,10 @@
         <v>32021</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>66</v>
@@ -12009,10 +12750,10 @@
         <v>42979</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>66</v>
@@ -12041,10 +12782,10 @@
         <v>32021</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>66</v>
@@ -12073,10 +12814,10 @@
         <v>32021</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>66</v>
@@ -12105,10 +12846,10 @@
         <v>32021</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>66</v>
@@ -12137,10 +12878,10 @@
         <v>32021</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>66</v>
@@ -12169,10 +12910,10 @@
         <v>32021</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>66</v>
@@ -12201,10 +12942,10 @@
         <v>32021</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>66</v>
@@ -12233,10 +12974,10 @@
         <v>32021</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>66</v>
@@ -12265,10 +13006,10 @@
         <v>32021</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>66</v>
@@ -12297,10 +13038,10 @@
         <v>32021</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>66</v>
@@ -12329,10 +13070,10 @@
         <v>32021</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>66</v>
@@ -12361,10 +13102,10 @@
         <v>32021</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>66</v>
@@ -12459,7 +13200,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF148"/>
+  <dimension ref="A1:BF149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -13707,175 +14448,175 @@
         <v>63</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -13883,175 +14624,175 @@
         <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AR9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AT9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AV9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AY9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -14557,7 +15298,7 @@
         <v>934</v>
       </c>
       <c r="D13" s="8">
-        <v>6360</v>
+        <v>6359</v>
       </c>
       <c r="E13" s="8">
         <v>543</v>
@@ -14742,7 +15483,7 @@
         <v>33</v>
       </c>
       <c r="M14" s="8">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N14" s="8">
         <v>2521</v>
@@ -15031,7 +15772,7 @@
         <v>836</v>
       </c>
       <c r="D16" s="8">
-        <v>7095</v>
+        <v>7094</v>
       </c>
       <c r="E16" s="8">
         <v>632</v>
@@ -15055,7 +15796,7 @@
         <v>134</v>
       </c>
       <c r="L16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M16" s="8">
         <v>689</v>
@@ -15151,7 +15892,7 @@
         <v>213</v>
       </c>
       <c r="AV16" s="8">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AW16" s="8">
         <v>918</v>
@@ -15341,7 +16082,7 @@
         <v>32660</v>
       </c>
       <c r="B18" s="8">
-        <v>8581</v>
+        <v>8580</v>
       </c>
       <c r="C18" s="8">
         <v>920</v>
@@ -15532,10 +16273,10 @@
         <v>55</v>
       </c>
       <c r="M19" s="8">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N19" s="8">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="O19" s="8">
         <v>150</v>
@@ -15657,10 +16398,10 @@
         <v>32843</v>
       </c>
       <c r="B20" s="8">
-        <v>8267</v>
+        <v>8266</v>
       </c>
       <c r="C20" s="8">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D20" s="8">
         <v>7291</v>
@@ -15848,7 +16589,7 @@
         <v>78</v>
       </c>
       <c r="M21" s="8">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N21" s="8">
         <v>2748</v>
@@ -16611,7 +17352,7 @@
         <v>1086</v>
       </c>
       <c r="D26" s="8">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="E26" s="8">
         <v>561</v>
@@ -16787,7 +17528,7 @@
         <v>170</v>
       </c>
       <c r="J27" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K27" s="8">
         <v>143</v>
@@ -17112,7 +17853,7 @@
         <v>31</v>
       </c>
       <c r="M29" s="8">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N29" s="8">
         <v>935</v>
@@ -17199,7 +17940,7 @@
         <v>186</v>
       </c>
       <c r="AT29" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AU29" s="8">
         <v>272</v>
@@ -17431,7 +18172,7 @@
         <v>479</v>
       </c>
       <c r="N31" s="8">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O31" s="8">
         <v>57</v>
@@ -18045,7 +18786,7 @@
         <v>133</v>
       </c>
       <c r="H35" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I35" s="8">
         <v>173</v>
@@ -18603,7 +19344,7 @@
         <v>25</v>
       </c>
       <c r="AN38" s="8">
-        <v>8235</v>
+        <v>8234</v>
       </c>
       <c r="AO38" s="8">
         <v>2341</v>
@@ -19133,7 +19874,7 @@
         <v>34851</v>
       </c>
       <c r="B42" s="8">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="C42" s="8">
         <v>1727</v>
@@ -19169,7 +19910,7 @@
         <v>415</v>
       </c>
       <c r="N42" s="8">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O42" s="8">
         <v>118</v>
@@ -19259,7 +20000,7 @@
         <v>323</v>
       </c>
       <c r="AV42" s="8">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AW42" s="8">
         <v>893</v>
@@ -19473,7 +20214,7 @@
         <v>122</v>
       </c>
       <c r="J44" s="8">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K44" s="8">
         <v>663</v>
@@ -20049,7 +20790,7 @@
         <v>321</v>
       </c>
       <c r="AV47" s="8">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW47" s="8">
         <v>1182</v>
@@ -20442,7 +21183,7 @@
         <v>62</v>
       </c>
       <c r="S50" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T50" s="8">
         <v>18</v>
@@ -20657,7 +21398,7 @@
         <v>84</v>
       </c>
       <c r="AN51" s="8">
-        <v>13091</v>
+        <v>13090</v>
       </c>
       <c r="AO51" s="8">
         <v>4284</v>
@@ -20728,7 +21469,7 @@
         <v>106</v>
       </c>
       <c r="G52" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H52" s="8">
         <v>229</v>
@@ -20821,7 +21562,7 @@
         <v>4542</v>
       </c>
       <c r="AP52" s="8">
-        <v>9141</v>
+        <v>9140</v>
       </c>
       <c r="AQ52" s="8">
         <v>3185</v>
@@ -20874,7 +21615,7 @@
         <v>7512</v>
       </c>
       <c r="C53" s="8">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D53" s="8">
         <v>5383</v>
@@ -21155,7 +21896,7 @@
         <v>470</v>
       </c>
       <c r="AV54" s="8">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AW54" s="8">
         <v>1277</v>
@@ -21369,7 +22110,7 @@
         <v>302</v>
       </c>
       <c r="J56" s="8">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K56" s="8">
         <v>587</v>
@@ -21664,7 +22405,7 @@
         <v>6825</v>
       </c>
       <c r="C58" s="8">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D58" s="8">
         <v>4759</v>
@@ -21843,7 +22584,7 @@
         <v>270</v>
       </c>
       <c r="J59" s="8">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K59" s="8">
         <v>440</v>
@@ -22135,7 +22876,7 @@
         <v>36586</v>
       </c>
       <c r="B61" s="8">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="C61" s="8">
         <v>992</v>
@@ -22171,7 +22912,7 @@
         <v>600</v>
       </c>
       <c r="N61" s="8">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="O61" s="8">
         <v>91</v>
@@ -22317,7 +23058,7 @@
         <v>260</v>
       </c>
       <c r="J62" s="8">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K62" s="8">
         <v>284</v>
@@ -22636,7 +23377,7 @@
         <v>572</v>
       </c>
       <c r="K64" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L64" s="8">
         <v>131</v>
@@ -22741,7 +23482,7 @@
         <v>1024</v>
       </c>
       <c r="AX64" s="8">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AY64" s="8">
         <v>406</v>
@@ -22773,7 +23514,7 @@
         <v>1244</v>
       </c>
       <c r="D65" s="8">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="E65" s="8">
         <v>432</v>
@@ -22893,7 +23634,7 @@
         <v>509</v>
       </c>
       <c r="AV65" s="8">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AW65" s="8">
         <v>1029</v>
@@ -23107,7 +23848,7 @@
         <v>267</v>
       </c>
       <c r="J67" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K67" s="8">
         <v>416</v>
@@ -23185,7 +23926,7 @@
         <v>79</v>
       </c>
       <c r="AN67" s="8">
-        <v>13407</v>
+        <v>13406</v>
       </c>
       <c r="AO67" s="8">
         <v>2634</v>
@@ -23423,7 +24164,7 @@
         <v>245</v>
       </c>
       <c r="J69" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K69" s="8">
         <v>493</v>
@@ -23817,7 +24558,7 @@
         <v>97</v>
       </c>
       <c r="AN71" s="8">
-        <v>15580</v>
+        <v>15579</v>
       </c>
       <c r="AO71" s="8">
         <v>3086</v>
@@ -23996,19 +24737,19 @@
         <v>480</v>
       </c>
       <c r="AU72" s="8">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AV72" s="8">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AW72" s="8">
         <v>2366</v>
       </c>
       <c r="AX72" s="8">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AY72" s="8">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AZ72" s="8">
         <v>1551</v>
@@ -24154,7 +24895,7 @@
         <v>479</v>
       </c>
       <c r="AU73" s="8">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AV73" s="8">
         <v>564</v>
@@ -24195,7 +24936,7 @@
         <v>1931</v>
       </c>
       <c r="D74" s="8">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="E74" s="8">
         <v>813</v>
@@ -24297,7 +25038,7 @@
         <v>3561</v>
       </c>
       <c r="AP74" s="8">
-        <v>13084</v>
+        <v>13083</v>
       </c>
       <c r="AQ74" s="8">
         <v>3368</v>
@@ -24318,7 +25059,7 @@
         <v>562</v>
       </c>
       <c r="AW74" s="8">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="AX74" s="8">
         <v>662</v>
@@ -24476,7 +25217,7 @@
         <v>594</v>
       </c>
       <c r="AW75" s="8">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="AX75" s="8">
         <v>573</v>
@@ -24613,7 +25354,7 @@
         <v>3610</v>
       </c>
       <c r="AP76" s="8">
-        <v>13520</v>
+        <v>13519</v>
       </c>
       <c r="AQ76" s="8">
         <v>3370</v>
@@ -24801,7 +25542,7 @@
         <v>482</v>
       </c>
       <c r="AZ77" s="8">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="BA77" s="8">
         <v>396</v>
@@ -24932,7 +25673,7 @@
         <v>14050</v>
       </c>
       <c r="AQ78" s="8">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="AR78" s="8">
         <v>644</v>
@@ -24959,7 +25700,7 @@
         <v>499</v>
       </c>
       <c r="AZ78" s="8">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="BA78" s="8">
         <v>434</v>
@@ -24985,7 +25726,7 @@
         <v>2022</v>
       </c>
       <c r="D79" s="8">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="E79" s="8">
         <v>1053</v>
@@ -25251,7 +25992,7 @@
         <v>3426</v>
       </c>
       <c r="AR80" s="8">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AS80" s="8">
         <v>697</v>
@@ -25719,7 +26460,7 @@
         <v>5253</v>
       </c>
       <c r="AP83" s="8">
-        <v>17362</v>
+        <v>17361</v>
       </c>
       <c r="AQ83" s="8">
         <v>4384</v>
@@ -26130,7 +26871,7 @@
         <v>32</v>
       </c>
       <c r="S86" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T86" s="8">
         <v>21</v>
@@ -26202,7 +26943,7 @@
         <v>748</v>
       </c>
       <c r="AS86" s="8">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AT86" s="8">
         <v>736</v>
@@ -26243,13 +26984,13 @@
         <v>38961</v>
       </c>
       <c r="B87" s="8">
-        <v>12591</v>
+        <v>12590</v>
       </c>
       <c r="C87" s="8">
         <v>5558</v>
       </c>
       <c r="D87" s="8">
-        <v>7013</v>
+        <v>7012</v>
       </c>
       <c r="E87" s="8">
         <v>1471</v>
@@ -26270,7 +27011,7 @@
         <v>387</v>
       </c>
       <c r="K87" s="8">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L87" s="8">
         <v>382</v>
@@ -26279,7 +27020,7 @@
         <v>207</v>
       </c>
       <c r="N87" s="8">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="O87" s="8">
         <v>40</v>
@@ -26351,7 +27092,7 @@
         <v>7281</v>
       </c>
       <c r="AP87" s="8">
-        <v>17891</v>
+        <v>17890</v>
       </c>
       <c r="AQ87" s="8">
         <v>3876</v>
@@ -26503,7 +27244,7 @@
         <v>219</v>
       </c>
       <c r="AN88" s="8">
-        <v>25598</v>
+        <v>25597</v>
       </c>
       <c r="AO88" s="8">
         <v>7312</v>
@@ -26819,7 +27560,7 @@
         <v>160</v>
       </c>
       <c r="AN90" s="8">
-        <v>28390</v>
+        <v>28389</v>
       </c>
       <c r="AO90" s="8">
         <v>8165</v>
@@ -27039,7 +27780,7 @@
         <v>6233</v>
       </c>
       <c r="D92" s="8">
-        <v>8851</v>
+        <v>8850</v>
       </c>
       <c r="E92" s="8">
         <v>1163</v>
@@ -27165,7 +27906,7 @@
         <v>2578</v>
       </c>
       <c r="AX92" s="8">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="AY92" s="8">
         <v>639</v>
@@ -27323,7 +28064,7 @@
         <v>2799</v>
       </c>
       <c r="AX93" s="8">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="AY93" s="8">
         <v>660</v>
@@ -27385,7 +28126,7 @@
         <v>250</v>
       </c>
       <c r="N94" s="8">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="O94" s="8">
         <v>79</v>
@@ -27961,7 +28702,7 @@
         <v>680</v>
       </c>
       <c r="AZ97" s="8">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BA97" s="8">
         <v>754</v>
@@ -28163,7 +28904,7 @@
         <v>276</v>
       </c>
       <c r="J99" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K99" s="8">
         <v>1284</v>
@@ -28175,7 +28916,7 @@
         <v>164</v>
       </c>
       <c r="N99" s="8">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="O99" s="8">
         <v>114</v>
@@ -28321,7 +29062,7 @@
         <v>259</v>
       </c>
       <c r="J100" s="8">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K100" s="8">
         <v>1150</v>
@@ -28435,7 +29176,7 @@
         <v>579</v>
       </c>
       <c r="AZ100" s="8">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="BA100" s="8">
         <v>942</v>
@@ -28482,7 +29223,7 @@
         <v>386</v>
       </c>
       <c r="K101" s="8">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="L101" s="8">
         <v>959</v>
@@ -28739,13 +29480,13 @@
         <v>1057</v>
       </c>
       <c r="AV102" s="8">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AW102" s="8">
         <v>2817</v>
       </c>
       <c r="AX102" s="8">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="AY102" s="8">
         <v>624</v>
@@ -28879,7 +29620,7 @@
         <v>11763</v>
       </c>
       <c r="AP103" s="8">
-        <v>21059</v>
+        <v>21058</v>
       </c>
       <c r="AQ103" s="8">
         <v>3405</v>
@@ -29219,7 +29960,7 @@
         <v>4035</v>
       </c>
       <c r="AX105" s="8">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AY105" s="8">
         <v>643</v>
@@ -29329,7 +30070,7 @@
         <v>390</v>
       </c>
       <c r="AF106" s="8">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG106" s="8">
         <v>1100</v>
@@ -29350,7 +30091,7 @@
         <v>39393</v>
       </c>
       <c r="AO106" s="8">
-        <v>16278</v>
+        <v>16279</v>
       </c>
       <c r="AP106" s="8">
         <v>23065</v>
@@ -29359,13 +30100,13 @@
         <v>3823</v>
       </c>
       <c r="AR106" s="8">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="AS106" s="8">
         <v>1337</v>
       </c>
       <c r="AT106" s="8">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AU106" s="8">
         <v>1124</v>
@@ -29433,7 +30174,7 @@
         <v>1675</v>
       </c>
       <c r="L107" s="8">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M107" s="8">
         <v>185</v>
@@ -29451,7 +30192,7 @@
         <v>189</v>
       </c>
       <c r="T107" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U107" s="8">
         <v>16502</v>
@@ -29505,7 +30246,7 @@
         <v>267</v>
       </c>
       <c r="AN107" s="8">
-        <v>42326</v>
+        <v>42325</v>
       </c>
       <c r="AO107" s="8">
         <v>19267</v>
@@ -29532,7 +30273,7 @@
         <v>792</v>
       </c>
       <c r="AW107" s="8">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="AX107" s="8">
         <v>1457</v>
@@ -29591,7 +30332,7 @@
         <v>1695</v>
       </c>
       <c r="L108" s="8">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M108" s="8">
         <v>183</v>
@@ -29857,7 +30598,7 @@
         <v>650</v>
       </c>
       <c r="AZ109" s="8">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="BA109" s="8">
         <v>902</v>
@@ -29979,7 +30720,7 @@
         <v>232</v>
       </c>
       <c r="AN110" s="8">
-        <v>48804</v>
+        <v>48803</v>
       </c>
       <c r="AO110" s="8">
         <v>27084</v>
@@ -30035,7 +30776,7 @@
         <v>41153</v>
       </c>
       <c r="B111" s="8">
-        <v>31916</v>
+        <v>31915</v>
       </c>
       <c r="C111" s="8">
         <v>22772</v>
@@ -30152,7 +30893,7 @@
         <v>1596</v>
       </c>
       <c r="AS111" s="8">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="AT111" s="8">
         <v>938</v>
@@ -30176,7 +30917,7 @@
         <v>2808</v>
       </c>
       <c r="BA111" s="8">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="BB111" s="8">
         <v>264</v>
@@ -30223,7 +30964,7 @@
         <v>1167</v>
       </c>
       <c r="L112" s="8">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M112" s="8">
         <v>218</v>
@@ -30298,10 +31039,10 @@
         <v>47556</v>
       </c>
       <c r="AO112" s="8">
-        <v>27172</v>
+        <v>27173</v>
       </c>
       <c r="AP112" s="8">
-        <v>20614</v>
+        <v>20613</v>
       </c>
       <c r="AQ112" s="8">
         <v>2818</v>
@@ -30387,7 +31128,7 @@
         <v>207</v>
       </c>
       <c r="N113" s="8">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O113" s="8">
         <v>163</v>
@@ -30515,7 +31256,7 @@
         <v>22942</v>
       </c>
       <c r="D114" s="8">
-        <v>7793</v>
+        <v>7792</v>
       </c>
       <c r="E114" s="8">
         <v>796</v>
@@ -30587,7 +31328,7 @@
         <v>425</v>
       </c>
       <c r="AD114" s="8">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="AE114" s="8">
         <v>294</v>
@@ -30667,10 +31408,10 @@
         <v>41518</v>
       </c>
       <c r="B115" s="8">
-        <v>31391</v>
+        <v>31390</v>
       </c>
       <c r="C115" s="8">
-        <v>23130</v>
+        <v>23131</v>
       </c>
       <c r="D115" s="8">
         <v>7995</v>
@@ -30715,7 +31456,7 @@
         <v>129</v>
       </c>
       <c r="T115" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U115" s="8">
         <v>15326</v>
@@ -30769,7 +31510,7 @@
         <v>297</v>
       </c>
       <c r="AN115" s="8">
-        <v>46487</v>
+        <v>46486</v>
       </c>
       <c r="AO115" s="8">
         <v>26353</v>
@@ -30828,7 +31569,7 @@
         <v>31380</v>
       </c>
       <c r="C116" s="8">
-        <v>22844</v>
+        <v>22845</v>
       </c>
       <c r="D116" s="8">
         <v>8275</v>
@@ -30954,7 +31695,7 @@
         <v>705</v>
       </c>
       <c r="AW116" s="8">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="AX116" s="8">
         <v>1618</v>
@@ -30986,10 +31727,10 @@
         <v>31034</v>
       </c>
       <c r="C117" s="8">
-        <v>22080</v>
+        <v>22081</v>
       </c>
       <c r="D117" s="8">
-        <v>8704</v>
+        <v>8705</v>
       </c>
       <c r="E117" s="8">
         <v>725</v>
@@ -31004,7 +31745,7 @@
         <v>218</v>
       </c>
       <c r="I117" s="8">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J117" s="8">
         <v>241</v>
@@ -31061,13 +31802,13 @@
         <v>460</v>
       </c>
       <c r="AD117" s="8">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AE117" s="8">
         <v>351</v>
       </c>
       <c r="AF117" s="8">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG117" s="8">
         <v>1057</v>
@@ -31168,7 +31909,7 @@
         <v>274</v>
       </c>
       <c r="K118" s="8">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L118" s="8">
         <v>1312</v>
@@ -31180,7 +31921,7 @@
         <v>1894</v>
       </c>
       <c r="O118" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P118" s="8">
         <v>43</v>
@@ -31195,7 +31936,7 @@
         <v>14616</v>
       </c>
       <c r="V118" s="8">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="W118" s="8">
         <v>12159</v>
@@ -31219,7 +31960,7 @@
         <v>447</v>
       </c>
       <c r="AD118" s="8">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="AE118" s="8">
         <v>333</v>
@@ -31302,7 +32043,7 @@
         <v>30289</v>
       </c>
       <c r="C119" s="8">
-        <v>20196</v>
+        <v>20197</v>
       </c>
       <c r="D119" s="8">
         <v>9886</v>
@@ -31326,7 +32067,7 @@
         <v>304</v>
       </c>
       <c r="K119" s="8">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="L119" s="8">
         <v>1349</v>
@@ -31353,7 +32094,7 @@
         <v>15048</v>
       </c>
       <c r="V119" s="8">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="W119" s="8">
         <v>12513</v>
@@ -31377,7 +32118,7 @@
         <v>444</v>
       </c>
       <c r="AD119" s="8">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AE119" s="8">
         <v>320</v>
@@ -31401,7 +32142,7 @@
         <v>315</v>
       </c>
       <c r="AN119" s="8">
-        <v>45126</v>
+        <v>45125</v>
       </c>
       <c r="AO119" s="8">
         <v>22861</v>
@@ -31460,7 +32201,7 @@
         <v>29189</v>
       </c>
       <c r="C120" s="8">
-        <v>19062</v>
+        <v>19063</v>
       </c>
       <c r="D120" s="8">
         <v>9942</v>
@@ -31559,10 +32300,10 @@
         <v>324</v>
       </c>
       <c r="AN120" s="8">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="AO120" s="8">
-        <v>21679</v>
+        <v>21680</v>
       </c>
       <c r="AP120" s="8">
         <v>22718</v>
@@ -31586,7 +32327,7 @@
         <v>807</v>
       </c>
       <c r="AW120" s="8">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="AX120" s="8">
         <v>1642</v>
@@ -31598,7 +32339,7 @@
         <v>3259</v>
       </c>
       <c r="BA120" s="8">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="BB120" s="8">
         <v>281</v>
@@ -31693,7 +32434,7 @@
         <v>520</v>
       </c>
       <c r="AD121" s="8">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AE121" s="8">
         <v>311</v>
@@ -31744,16 +32485,16 @@
         <v>903</v>
       </c>
       <c r="AW121" s="8">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="AX121" s="8">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AY121" s="8">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AZ121" s="8">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="BA121" s="8">
         <v>911</v>
@@ -31779,7 +32520,7 @@
         <v>16257</v>
       </c>
       <c r="D122" s="8">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="E122" s="8">
         <v>542</v>
@@ -31791,7 +32532,7 @@
         <v>52</v>
       </c>
       <c r="H122" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I122" s="8">
         <v>460</v>
@@ -31875,7 +32616,7 @@
         <v>287</v>
       </c>
       <c r="AN122" s="8">
-        <v>40159</v>
+        <v>40158</v>
       </c>
       <c r="AO122" s="8">
         <v>18360</v>
@@ -31902,7 +32643,7 @@
         <v>966</v>
       </c>
       <c r="AW122" s="8">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="AX122" s="8">
         <v>1552</v>
@@ -31955,7 +32696,7 @@
         <v>429</v>
       </c>
       <c r="J123" s="8">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K123" s="8">
         <v>841</v>
@@ -32009,13 +32750,13 @@
         <v>480</v>
       </c>
       <c r="AD123" s="8">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="AE123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF123" s="8">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG123" s="8">
         <v>820</v>
@@ -32036,13 +32777,13 @@
         <v>38083</v>
       </c>
       <c r="AO123" s="8">
-        <v>16855</v>
+        <v>16856</v>
       </c>
       <c r="AP123" s="8">
         <v>21368</v>
       </c>
       <c r="AQ123" s="8">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AR123" s="8">
         <v>1430</v>
@@ -32054,19 +32795,19 @@
         <v>944</v>
       </c>
       <c r="AU123" s="8">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AV123" s="8">
         <v>946</v>
       </c>
       <c r="AW123" s="8">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="AX123" s="8">
         <v>1602</v>
       </c>
       <c r="AY123" s="8">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AZ123" s="8">
         <v>3186</v>
@@ -32081,7 +32822,7 @@
         <v>357</v>
       </c>
       <c r="BF123" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:58" x14ac:dyDescent="0.2">
@@ -32095,7 +32836,7 @@
         <v>13716</v>
       </c>
       <c r="D124" s="8">
-        <v>9649</v>
+        <v>9648</v>
       </c>
       <c r="E124" s="8">
         <v>513</v>
@@ -32119,7 +32860,7 @@
         <v>899</v>
       </c>
       <c r="L124" s="8">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="M124" s="8">
         <v>199</v>
@@ -32173,10 +32914,10 @@
         <v>366</v>
       </c>
       <c r="AF124" s="8">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG124" s="8">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AH124" s="8">
         <v>851</v>
@@ -32191,10 +32932,10 @@
         <v>265</v>
       </c>
       <c r="AN124" s="8">
-        <v>37011</v>
+        <v>37012</v>
       </c>
       <c r="AO124" s="8">
-        <v>15356</v>
+        <v>15357</v>
       </c>
       <c r="AP124" s="8">
         <v>21768</v>
@@ -32209,10 +32950,10 @@
         <v>1267</v>
       </c>
       <c r="AT124" s="8">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AU124" s="8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AV124" s="8">
         <v>866</v>
@@ -32280,7 +33021,7 @@
         <v>1359</v>
       </c>
       <c r="M125" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N125" s="8">
         <v>2428</v>
@@ -32325,10 +33066,10 @@
         <v>411</v>
       </c>
       <c r="AD125" s="8">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="AE125" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF125" s="8">
         <v>797</v>
@@ -32364,28 +33105,28 @@
         <v>1448</v>
       </c>
       <c r="AS125" s="8">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AT125" s="8">
         <v>1140</v>
       </c>
       <c r="AU125" s="8">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AV125" s="8">
         <v>782</v>
       </c>
       <c r="AW125" s="8">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="AX125" s="8">
         <v>1750</v>
       </c>
       <c r="AY125" s="8">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AZ125" s="8">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="BA125" s="8">
         <v>1004</v>
@@ -32408,10 +33149,10 @@
         <v>20105</v>
       </c>
       <c r="C126" s="8">
-        <v>10459</v>
+        <v>10458</v>
       </c>
       <c r="D126" s="8">
-        <v>9588</v>
+        <v>9587</v>
       </c>
       <c r="E126" s="8">
         <v>534</v>
@@ -32465,7 +33206,7 @@
         <v>12508</v>
       </c>
       <c r="X126" s="8">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="Y126" s="8">
         <v>454</v>
@@ -32483,7 +33224,7 @@
         <v>465</v>
       </c>
       <c r="AD126" s="8">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="AE126" s="8">
         <v>385</v>
@@ -32498,13 +33239,13 @@
         <v>844</v>
       </c>
       <c r="AI126" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL126" s="8">
         <v>140</v>
       </c>
       <c r="AM126" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN126" s="8">
         <v>34046</v>
@@ -32513,7 +33254,7 @@
         <v>11961</v>
       </c>
       <c r="AP126" s="8">
-        <v>22146</v>
+        <v>22145</v>
       </c>
       <c r="AQ126" s="8">
         <v>2188</v>
@@ -32525,7 +33266,7 @@
         <v>1571</v>
       </c>
       <c r="AT126" s="8">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="AU126" s="8">
         <v>1338</v>
@@ -32534,7 +33275,7 @@
         <v>773</v>
       </c>
       <c r="AW126" s="8">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="AX126" s="8">
         <v>1781</v>
@@ -32626,25 +33367,25 @@
         <v>1684</v>
       </c>
       <c r="Y127" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z127" s="8">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AA127" s="8">
         <v>852</v>
       </c>
       <c r="AB127" s="8">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AC127" s="8">
         <v>531</v>
       </c>
       <c r="AD127" s="8">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AE127" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF127" s="8">
         <v>794</v>
@@ -32656,7 +33397,7 @@
         <v>736</v>
       </c>
       <c r="AI127" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL127" s="8">
         <v>144</v>
@@ -32668,31 +33409,31 @@
         <v>32803</v>
       </c>
       <c r="AO127" s="8">
-        <v>10789</v>
+        <v>10790</v>
       </c>
       <c r="AP127" s="8">
-        <v>22052</v>
+        <v>22051</v>
       </c>
       <c r="AQ127" s="8">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AR127" s="8">
         <v>1358</v>
       </c>
       <c r="AS127" s="8">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="AT127" s="8">
         <v>1110</v>
       </c>
       <c r="AU127" s="8">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="AV127" s="8">
         <v>820</v>
       </c>
       <c r="AW127" s="8">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="AX127" s="8">
         <v>1850</v>
@@ -32713,7 +33454,7 @@
         <v>388</v>
       </c>
       <c r="BF127" s="8">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
@@ -32730,7 +33471,7 @@
         <v>9885</v>
       </c>
       <c r="E128" s="8">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F128" s="8">
         <v>1005</v>
@@ -32754,7 +33495,7 @@
         <v>1611</v>
       </c>
       <c r="M128" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N128" s="8">
         <v>2246</v>
@@ -32763,7 +33504,7 @@
         <v>126</v>
       </c>
       <c r="P128" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S128" s="8">
         <v>229</v>
@@ -32778,7 +33519,7 @@
         <v>1475</v>
       </c>
       <c r="W128" s="8">
-        <v>12264</v>
+        <v>12263</v>
       </c>
       <c r="X128" s="8">
         <v>1711</v>
@@ -32802,13 +33543,13 @@
         <v>1771</v>
       </c>
       <c r="AE128" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF128" s="8">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG128" s="8">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AH128" s="8">
         <v>692</v>
@@ -32817,7 +33558,7 @@
         <v>216</v>
       </c>
       <c r="AL128" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM128" s="8">
         <v>307</v>
@@ -32826,7 +33567,7 @@
         <v>32543</v>
       </c>
       <c r="AO128" s="8">
-        <v>10384</v>
+        <v>10385</v>
       </c>
       <c r="AP128" s="8">
         <v>22181</v>
@@ -32865,7 +33606,7 @@
         <v>820</v>
       </c>
       <c r="BB128" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BE128" s="8">
         <v>378</v>
@@ -32885,13 +33626,13 @@
         <v>8677</v>
       </c>
       <c r="D129" s="8">
-        <v>10354</v>
+        <v>10353</v>
       </c>
       <c r="E129" s="8">
         <v>707</v>
       </c>
       <c r="F129" s="8">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G129" s="8">
         <v>84</v>
@@ -32927,7 +33668,7 @@
         <v>203</v>
       </c>
       <c r="T129" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U129" s="8">
         <v>13731</v>
@@ -32939,13 +33680,13 @@
         <v>12235</v>
       </c>
       <c r="X129" s="8">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="Y129" s="8">
         <v>384</v>
       </c>
       <c r="Z129" s="8">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="AA129" s="8">
         <v>761</v>
@@ -32957,16 +33698,16 @@
         <v>519</v>
       </c>
       <c r="AD129" s="8">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="AE129" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF129" s="8">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG129" s="8">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AH129" s="8">
         <v>728</v>
@@ -32981,7 +33722,7 @@
         <v>311</v>
       </c>
       <c r="AN129" s="8">
-        <v>32794</v>
+        <v>32793</v>
       </c>
       <c r="AO129" s="8">
         <v>10195</v>
@@ -32996,25 +33737,25 @@
         <v>1494</v>
       </c>
       <c r="AS129" s="8">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AT129" s="8">
         <v>1087</v>
       </c>
       <c r="AU129" s="8">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AV129" s="8">
         <v>865</v>
       </c>
       <c r="AW129" s="8">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="AX129" s="8">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="AY129" s="8">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AZ129" s="8">
         <v>3263</v>
@@ -33029,7 +33770,7 @@
         <v>356</v>
       </c>
       <c r="BF129" s="8">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
@@ -33037,7 +33778,7 @@
         <v>42887</v>
       </c>
       <c r="B130" s="8">
-        <v>19362</v>
+        <v>19363</v>
       </c>
       <c r="C130" s="8">
         <v>8468</v>
@@ -33073,13 +33814,13 @@
         <v>212</v>
       </c>
       <c r="N130" s="8">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="O130" s="8">
         <v>185</v>
       </c>
       <c r="P130" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S130" s="8">
         <v>192</v>
@@ -33097,7 +33838,7 @@
         <v>12319</v>
       </c>
       <c r="X130" s="8">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="Y130" s="8">
         <v>395</v>
@@ -33112,10 +33853,10 @@
         <v>921</v>
       </c>
       <c r="AC130" s="8">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AD130" s="8">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AE130" s="8">
         <v>348</v>
@@ -33136,13 +33877,13 @@
         <v>165</v>
       </c>
       <c r="AM130" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN130" s="8">
         <v>33213</v>
       </c>
       <c r="AO130" s="8">
-        <v>10020</v>
+        <v>10021</v>
       </c>
       <c r="AP130" s="8">
         <v>23194</v>
@@ -33166,19 +33907,19 @@
         <v>855</v>
       </c>
       <c r="AW130" s="8">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="AX130" s="8">
         <v>2207</v>
       </c>
       <c r="AY130" s="8">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AZ130" s="8">
         <v>3303</v>
       </c>
       <c r="BA130" s="8">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="BB130" s="8">
         <v>310</v>
@@ -33187,7 +33928,7 @@
         <v>357</v>
       </c>
       <c r="BF130" s="8">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:58" x14ac:dyDescent="0.2">
@@ -33195,13 +33936,13 @@
         <v>42979</v>
       </c>
       <c r="B131" s="8">
-        <v>19532</v>
+        <v>19534</v>
       </c>
       <c r="C131" s="8">
-        <v>8194</v>
+        <v>8195</v>
       </c>
       <c r="D131" s="8">
-        <v>11318</v>
+        <v>11319</v>
       </c>
       <c r="E131" s="8">
         <v>744</v>
@@ -33225,13 +33966,13 @@
         <v>1238</v>
       </c>
       <c r="L131" s="8">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="M131" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N131" s="8">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="O131" s="8">
         <v>215</v>
@@ -33251,37 +33992,37 @@
         <v>14117</v>
       </c>
       <c r="V131" s="8">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="W131" s="8">
-        <v>12450</v>
+        <v>12449</v>
       </c>
       <c r="X131" s="8">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Y131" s="8">
         <v>394</v>
       </c>
       <c r="Z131" s="8">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AA131" s="8">
         <v>739</v>
       </c>
       <c r="AB131" s="8">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AC131" s="8">
         <v>477</v>
       </c>
       <c r="AD131" s="8">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="AE131" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AF131" s="8">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG131" s="8">
         <v>1370</v>
@@ -33301,40 +34042,40 @@
         <v>341</v>
       </c>
       <c r="AN131" s="8">
-        <v>33643</v>
+        <v>33645</v>
       </c>
       <c r="AO131" s="8">
-        <v>9882</v>
+        <v>9885</v>
       </c>
       <c r="AP131" s="8">
         <v>23761</v>
       </c>
       <c r="AQ131" s="8">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AR131" s="8">
         <v>1894</v>
       </c>
       <c r="AS131" s="8">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="AT131" s="8">
         <v>1056</v>
       </c>
       <c r="AU131" s="8">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AV131" s="8">
         <v>836</v>
       </c>
       <c r="AW131" s="8">
-        <v>3101</v>
+        <v>3106</v>
       </c>
       <c r="AX131" s="8">
         <v>2253</v>
       </c>
       <c r="AY131" s="8">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AZ131" s="8">
         <v>3428</v>
@@ -33348,10 +34089,10 @@
       <c r="BC131" s="8"/>
       <c r="BD131" s="8"/>
       <c r="BE131" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BF131" s="8">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:58" x14ac:dyDescent="0.2">
@@ -33359,19 +34100,19 @@
         <v>43070</v>
       </c>
       <c r="B132" s="8">
-        <v>19524</v>
+        <v>19525</v>
       </c>
       <c r="C132" s="8">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="D132" s="8">
-        <v>11656</v>
+        <v>11657</v>
       </c>
       <c r="E132" s="8">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F132" s="8">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G132" s="8">
         <v>104</v>
@@ -33392,7 +34133,7 @@
         <v>1849</v>
       </c>
       <c r="M132" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N132" s="8">
         <v>2108</v>
@@ -33401,7 +34142,7 @@
         <v>206</v>
       </c>
       <c r="P132" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
@@ -33415,10 +34156,10 @@
         <v>14443</v>
       </c>
       <c r="V132" s="8">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="W132" s="8">
-        <v>12575</v>
+        <v>12574</v>
       </c>
       <c r="X132" s="8">
         <v>1803</v>
@@ -33430,7 +34171,7 @@
         <v>1477</v>
       </c>
       <c r="AA132" s="8">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AB132" s="8">
         <v>844</v>
@@ -33439,7 +34180,7 @@
         <v>489</v>
       </c>
       <c r="AD132" s="8">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AE132" s="8">
         <v>368</v>
@@ -33448,10 +34189,10 @@
         <v>683</v>
       </c>
       <c r="AG132" s="8">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AH132" s="8">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AI132" s="8">
         <v>253</v>
@@ -33465,16 +34206,16 @@
         <v>349</v>
       </c>
       <c r="AN132" s="8">
-        <v>33957</v>
+        <v>33959</v>
       </c>
       <c r="AO132" s="8">
-        <v>9745</v>
+        <v>9746</v>
       </c>
       <c r="AP132" s="8">
         <v>24216</v>
       </c>
       <c r="AQ132" s="8">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="AR132" s="8">
         <v>2172</v>
@@ -33492,13 +34233,13 @@
         <v>886</v>
       </c>
       <c r="AW132" s="8">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="AX132" s="8">
         <v>2215</v>
       </c>
       <c r="AY132" s="8">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AZ132" s="8">
         <v>3501</v>
@@ -33507,12 +34248,12 @@
         <v>1057</v>
       </c>
       <c r="BB132" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BC132" s="8"/>
       <c r="BD132" s="8"/>
       <c r="BE132" s="8">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BF132" s="8">
         <v>493</v>
@@ -33523,19 +34264,19 @@
         <v>43160</v>
       </c>
       <c r="B133" s="8">
-        <v>19258</v>
+        <v>19256</v>
       </c>
       <c r="C133" s="8">
         <v>7445</v>
       </c>
       <c r="D133" s="8">
-        <v>11803</v>
+        <v>11802</v>
       </c>
       <c r="E133" s="8">
         <v>675</v>
       </c>
       <c r="F133" s="8">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G133" s="8">
         <v>90</v>
@@ -33553,10 +34294,10 @@
         <v>1382</v>
       </c>
       <c r="L133" s="8">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="M133" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N133" s="8">
         <v>2138</v>
@@ -33573,52 +34314,52 @@
         <v>197</v>
       </c>
       <c r="T133" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U133" s="8">
         <v>14817</v>
       </c>
       <c r="V133" s="8">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="W133" s="8">
-        <v>12776</v>
+        <v>12777</v>
       </c>
       <c r="X133" s="8">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="Y133" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z133" s="8">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AA133" s="8">
         <v>805</v>
       </c>
       <c r="AB133" s="8">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AC133" s="8">
         <v>514</v>
       </c>
       <c r="AD133" s="8">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="AE133" s="8">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF133" s="8">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AG133" s="8">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="AH133" s="8">
         <v>801</v>
       </c>
       <c r="AI133" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ133" s="8"/>
       <c r="AK133" s="8"/>
@@ -33626,49 +34367,49 @@
         <v>179</v>
       </c>
       <c r="AM133" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN133" s="8">
-        <v>34075</v>
+        <v>34073</v>
       </c>
       <c r="AO133" s="8">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="AP133" s="8">
         <v>24573</v>
       </c>
       <c r="AQ133" s="8">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="AR133" s="8">
         <v>2399</v>
       </c>
       <c r="AS133" s="8">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="AT133" s="8">
         <v>1061</v>
       </c>
       <c r="AU133" s="8">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AV133" s="8">
         <v>983</v>
       </c>
       <c r="AW133" s="8">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="AX133" s="8">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="AY133" s="8">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AZ133" s="8">
         <v>3486</v>
       </c>
       <c r="BA133" s="8">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="BB133" s="8">
         <v>322</v>
@@ -33679,7 +34420,7 @@
         <v>375</v>
       </c>
       <c r="BF133" s="8">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:58" x14ac:dyDescent="0.2">
@@ -33687,19 +34428,19 @@
         <v>43252</v>
       </c>
       <c r="B134" s="8">
-        <v>18912</v>
+        <v>18911</v>
       </c>
       <c r="C134" s="8">
         <v>7043</v>
       </c>
       <c r="D134" s="8">
-        <v>11865</v>
+        <v>11864</v>
       </c>
       <c r="E134" s="8">
         <v>661</v>
       </c>
       <c r="F134" s="8">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="G134" s="8">
         <v>77</v>
@@ -33708,7 +34449,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="8">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J134" s="8">
         <v>516</v>
@@ -33737,7 +34478,7 @@
         <v>168</v>
       </c>
       <c r="T134" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U134" s="8">
         <v>15178</v>
@@ -33746,7 +34487,7 @@
         <v>2112</v>
       </c>
       <c r="W134" s="8">
-        <v>13055</v>
+        <v>13054</v>
       </c>
       <c r="X134" s="8">
         <v>1903</v>
@@ -33755,19 +34496,19 @@
         <v>365</v>
       </c>
       <c r="Z134" s="8">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AA134" s="8">
         <v>862</v>
       </c>
       <c r="AB134" s="8">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AC134" s="8">
         <v>515</v>
       </c>
       <c r="AD134" s="8">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="AE134" s="8">
         <v>390</v>
@@ -33793,13 +34534,13 @@
         <v>358</v>
       </c>
       <c r="AN134" s="8">
-        <v>34110</v>
+        <v>34108</v>
       </c>
       <c r="AO134" s="8">
         <v>9180</v>
       </c>
       <c r="AP134" s="8">
-        <v>24931</v>
+        <v>24929</v>
       </c>
       <c r="AQ134" s="8">
         <v>2566</v>
@@ -33808,31 +34549,31 @@
         <v>2496</v>
       </c>
       <c r="AS134" s="8">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AT134" s="8">
         <v>1110</v>
       </c>
       <c r="AU134" s="8">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AV134" s="8">
         <v>1032</v>
       </c>
       <c r="AW134" s="8">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="AX134" s="8">
         <v>2048</v>
       </c>
       <c r="AY134" s="8">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AZ134" s="8">
         <v>3414</v>
       </c>
       <c r="BA134" s="8">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="BB134" s="8">
         <v>306</v>
@@ -33843,7 +34584,7 @@
         <v>340</v>
       </c>
       <c r="BF134" s="8">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:58" x14ac:dyDescent="0.2">
@@ -33851,10 +34592,10 @@
         <v>43344</v>
       </c>
       <c r="B135" s="8">
-        <v>18699</v>
+        <v>18700</v>
       </c>
       <c r="C135" s="8">
-        <v>6664</v>
+        <v>6665</v>
       </c>
       <c r="D135" s="8">
         <v>12030</v>
@@ -33863,31 +34604,31 @@
         <v>653</v>
       </c>
       <c r="F135" s="8">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="G135" s="8">
         <v>74</v>
       </c>
       <c r="H135" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I135" s="8">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J135" s="8">
         <v>515</v>
       </c>
       <c r="K135" s="8">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="L135" s="8">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="M135" s="8">
         <v>299</v>
       </c>
       <c r="N135" s="8">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="O135" s="8">
         <v>219</v>
@@ -33898,46 +34639,46 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
       <c r="S135" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T135" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U135" s="8">
         <v>15411</v>
       </c>
       <c r="V135" s="8">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="W135" s="8">
-        <v>13267</v>
+        <v>13264</v>
       </c>
       <c r="X135" s="8">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="Y135" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z135" s="8">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="AA135" s="8">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AB135" s="8">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AC135" s="8">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AD135" s="8">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="AE135" s="8">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF135" s="8">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AG135" s="8">
         <v>1260</v>
@@ -33954,52 +34695,52 @@
         <v>165</v>
       </c>
       <c r="AM135" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN135" s="8">
-        <v>34128</v>
+        <v>34129</v>
       </c>
       <c r="AO135" s="8">
-        <v>8816</v>
+        <v>8820</v>
       </c>
       <c r="AP135" s="8">
-        <v>25310</v>
+        <v>25307</v>
       </c>
       <c r="AQ135" s="8">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="AR135" s="8">
         <v>2525</v>
       </c>
       <c r="AS135" s="8">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="AT135" s="8">
         <v>1173</v>
       </c>
       <c r="AU135" s="8">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AV135" s="8">
         <v>1010</v>
       </c>
       <c r="AW135" s="8">
-        <v>3477</v>
+        <v>3484</v>
       </c>
       <c r="AX135" s="8">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="AY135" s="8">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="AZ135" s="8">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="BA135" s="8">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="BB135" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BC135" s="8"/>
       <c r="BD135" s="8"/>
@@ -34007,7 +34748,7 @@
         <v>315</v>
       </c>
       <c r="BF135" s="8">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:58" x14ac:dyDescent="0.2">
@@ -34015,7 +34756,7 @@
         <v>43435</v>
       </c>
       <c r="B136" s="8">
-        <v>18825</v>
+        <v>18826</v>
       </c>
       <c r="C136" s="8">
         <v>6324</v>
@@ -34024,7 +34765,7 @@
         <v>12504</v>
       </c>
       <c r="E136" s="8">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F136" s="8">
         <v>2190</v>
@@ -34042,7 +34783,7 @@
         <v>493</v>
       </c>
       <c r="K136" s="8">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="L136" s="8">
         <v>1399</v>
@@ -34071,19 +34812,19 @@
         <v>15613</v>
       </c>
       <c r="V136" s="8">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="W136" s="8">
-        <v>13429</v>
+        <v>13427</v>
       </c>
       <c r="X136" s="8">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="Y136" s="8">
         <v>331</v>
       </c>
       <c r="Z136" s="8">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AA136" s="8">
         <v>949</v>
@@ -34098,7 +34839,7 @@
         <v>1894</v>
       </c>
       <c r="AE136" s="8">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF136" s="8">
         <v>762</v>
@@ -34107,10 +34848,10 @@
         <v>1271</v>
       </c>
       <c r="AH136" s="8">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AI136" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ136" s="8"/>
       <c r="AK136" s="8"/>
@@ -34121,13 +34862,13 @@
         <v>411</v>
       </c>
       <c r="AN136" s="8">
-        <v>34448</v>
+        <v>34449</v>
       </c>
       <c r="AO136" s="8">
-        <v>8511</v>
+        <v>8513</v>
       </c>
       <c r="AP136" s="8">
-        <v>25935</v>
+        <v>25934</v>
       </c>
       <c r="AQ136" s="8">
         <v>2463</v>
@@ -34145,25 +34886,25 @@
         <v>1647</v>
       </c>
       <c r="AV136" s="8">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AW136" s="8">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="AX136" s="8">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AY136" s="8">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AZ136" s="8">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="BA136" s="8">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="BB136" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BC136" s="8"/>
       <c r="BD136" s="8"/>
@@ -34179,43 +34920,43 @@
         <v>43525</v>
       </c>
       <c r="B137" s="8">
-        <v>18534</v>
+        <v>18532</v>
       </c>
       <c r="C137" s="8">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="D137" s="8">
-        <v>12398</v>
+        <v>12396</v>
       </c>
       <c r="E137" s="8">
         <v>627</v>
       </c>
       <c r="F137" s="8">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G137" s="8">
         <v>90</v>
       </c>
       <c r="H137" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I137" s="8">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J137" s="8">
         <v>507</v>
       </c>
       <c r="K137" s="8">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="L137" s="8">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M137" s="8">
         <v>251</v>
       </c>
       <c r="N137" s="8">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="O137" s="8">
         <v>239</v>
@@ -34229,46 +34970,46 @@
         <v>180</v>
       </c>
       <c r="T137" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U137" s="8">
         <v>15690</v>
       </c>
       <c r="V137" s="8">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="W137" s="8">
-        <v>13401</v>
+        <v>13404</v>
       </c>
       <c r="X137" s="8">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="Y137" s="8">
         <v>311</v>
       </c>
       <c r="Z137" s="8">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AA137" s="8">
         <v>943</v>
       </c>
       <c r="AB137" s="8">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="AC137" s="8">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD137" s="8">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="AE137" s="8">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF137" s="8">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AG137" s="8">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AH137" s="8">
         <v>824</v>
@@ -34282,43 +35023,43 @@
         <v>203</v>
       </c>
       <c r="AM137" s="8">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN137" s="8">
-        <v>34213</v>
+        <v>34211</v>
       </c>
       <c r="AO137" s="8">
-        <v>8425</v>
+        <v>8422</v>
       </c>
       <c r="AP137" s="8">
-        <v>25786</v>
+        <v>25788</v>
       </c>
       <c r="AQ137" s="8">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="AR137" s="8">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="AS137" s="8">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="AT137" s="8">
         <v>1173</v>
       </c>
       <c r="AU137" s="8">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="AV137" s="8">
         <v>975</v>
       </c>
       <c r="AW137" s="8">
-        <v>3574</v>
+        <v>3566</v>
       </c>
       <c r="AX137" s="8">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AY137" s="8">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AZ137" s="8">
         <v>3636</v>
@@ -34327,15 +35068,15 @@
         <v>1063</v>
       </c>
       <c r="BB137" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BC137" s="8"/>
       <c r="BD137" s="8"/>
       <c r="BE137" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BF137" s="8">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:58" x14ac:dyDescent="0.2">
@@ -35020,6 +35761,68 @@
       <c r="BE148" s="8"/>
       <c r="BF148" s="8"/>
     </row>
+    <row r="149" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="8"/>
+      <c r="AD149" s="8"/>
+      <c r="AE149" s="8"/>
+      <c r="AF149" s="8"/>
+      <c r="AG149" s="8"/>
+      <c r="AH149" s="8"/>
+      <c r="AI149" s="8"/>
+      <c r="AJ149" s="8"/>
+      <c r="AK149" s="8"/>
+      <c r="AL149" s="8"/>
+      <c r="AM149" s="8"/>
+      <c r="AN149" s="8"/>
+      <c r="AO149" s="8"/>
+      <c r="AP149" s="8"/>
+      <c r="AQ149" s="8"/>
+      <c r="AR149" s="8"/>
+      <c r="AS149" s="8"/>
+      <c r="AT149" s="8"/>
+      <c r="AU149" s="8"/>
+      <c r="AV149" s="8"/>
+      <c r="AW149" s="8"/>
+      <c r="AX149" s="8"/>
+      <c r="AY149" s="8"/>
+      <c r="AZ149" s="8"/>
+      <c r="BA149" s="8"/>
+      <c r="BB149" s="8"/>
+      <c r="BC149" s="8"/>
+      <c r="BD149" s="8"/>
+      <c r="BE149" s="8"/>
+      <c r="BF149" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
